--- a/001_GPSCamera_Document/006＿GPSカメラアプリ＿議事録.xlsx
+++ b/001_GPSCamera_Document/006＿GPSカメラアプリ＿議事録.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
     <sheet name="議事録_2015年09月03日" sheetId="3" r:id="rId2"/>
+    <sheet name="議事録_2015年09月15日" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">議事録_2015年09月03日!$A$1:$N$40</definedName>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
   <si>
     <t>No</t>
   </si>
@@ -742,6 +743,384 @@
     <t>GPSカメラアプリー議事録</t>
     <rPh sb="10" eb="13">
       <t>ギジロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>2015</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>09</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日　</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>15-15:30</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>品川</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>７階ミーティングテープル</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・画面設計書のレビュー
+・画面仕様書のレビュー
+・内部設計書の案内
+・SKCライブラリの説明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>アンナイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>◆画面設計書
+　　・項目の順番を再順番する（位置テキストボックスを写真の下に置いたほうがいい）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　　・説明方法が分かりやすくにする。
+◆画面仕様書
+　　・位置をBackgroundとForegroundの処理機能を追加したほうがいい。
+　　・アプリを起動するときに、アカウント情報を記入したほうがいい。
+　　・画面のサイズによって、どのように表示するかどうかを説明する必要があります。
+　　・位置情報を記録する機能を作成する。
+◆内部設計書
+　　・アプリを起動する際に、何を実行するかを説明する。
+　　・アプリを閉じる際に、何を実行するかを説明する。
+　　・具体的にActivityの処理を説明する必要がある。（ボタンクリックの処理、Intentを遷移する際等）
+　　・Backgroundの処理を説明する必要がある。
+=&gt;09月18日まで完了する予定。来週から、新しい作業がある。</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="180" eb="182">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="205" eb="207">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="208" eb="210">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="217" eb="219">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="219" eb="220">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="256" eb="257">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="259" eb="260">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="262" eb="263">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="264" eb="266">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="270" eb="272">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="279" eb="282">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="292" eb="294">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="295" eb="297">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="299" eb="301">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="314" eb="316">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="324" eb="326">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="328" eb="329">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="329" eb="330">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="346" eb="348">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="349" eb="351">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="353" eb="355">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="364" eb="365">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="367" eb="368">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="370" eb="372">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="374" eb="376">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="377" eb="379">
+      <t>ライシュウ</t>
+    </rPh>
+    <rPh sb="382" eb="383">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="385" eb="387">
+      <t>サギョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -997,7 +1376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1076,7 +1455,14 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1085,6 +1471,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1113,7 +1500,123 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1121,123 +1624,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1547,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -2198,54 +2584,54 @@
   <sheetData>
     <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
       <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="H4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="43"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="44">
+      <c r="L4" s="48">
         <v>42250</v>
       </c>
-      <c r="M4" s="44"/>
+      <c r="M4" s="48"/>
       <c r="N4" s="5"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -2254,23 +2640,23 @@
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="43" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="43"/>
+      <c r="J5" s="47"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -2332,17 +2718,17 @@
       <c r="F8" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="46" t="s">
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="48"/>
+      <c r="M8" s="52"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="6"/>
@@ -2361,15 +2747,15 @@
       <c r="F9" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="41"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="6"/>
@@ -2382,13 +2768,13 @@
       <c r="D10" s="31"/>
       <c r="E10" s="32"/>
       <c r="F10" s="26"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="38"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="41"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="6"/>
@@ -2401,13 +2787,13 @@
       <c r="D11" s="31"/>
       <c r="E11" s="32"/>
       <c r="F11" s="26"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="38"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="41"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="6"/>
@@ -2420,13 +2806,13 @@
       <c r="D12" s="31"/>
       <c r="E12" s="32"/>
       <c r="F12" s="26"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="38"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="41"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="6"/>
@@ -2439,13 +2825,13 @@
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
       <c r="F13" s="26"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="38"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="41"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="6"/>
@@ -2456,14 +2842,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:M12"/>
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B2:M2"/>
@@ -2477,6 +2855,14 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -2497,7 +2883,7 @@
   <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="Q23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -3148,39 +3534,39 @@
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
       <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="15" t="s">
         <v>4</v>
       </c>
@@ -3207,11 +3593,11 @@
       <c r="B4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="15" t="s">
         <v>5</v>
       </c>
@@ -3271,25 +3657,25 @@
       <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="46" t="s">
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="46" t="s">
+      <c r="I7" s="76"/>
+      <c r="J7" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="63"/>
-      <c r="L7" s="56" t="s">
+      <c r="K7" s="76"/>
+      <c r="L7" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="64"/>
+      <c r="M7" s="78"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="6"/>
@@ -3298,25 +3684,25 @@
       <c r="B8" s="9">
         <v>1</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="91" t="s">
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="37" t="s">
+      <c r="I8" s="41"/>
+      <c r="J8" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="87" t="s">
+      <c r="K8" s="41"/>
+      <c r="L8" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="87"/>
+      <c r="M8" s="70"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="6"/>
@@ -3325,25 +3711,25 @@
       <c r="B9" s="9">
         <v>2</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="91" t="s">
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="91" t="s">
+      <c r="I9" s="41"/>
+      <c r="J9" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="87" t="s">
+      <c r="K9" s="41"/>
+      <c r="L9" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="87"/>
+      <c r="M9" s="70"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="6"/>
@@ -3369,50 +3755,50 @@
     </row>
     <row r="14" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="55"/>
     </row>
     <row r="15" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="75"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="58"/>
     </row>
     <row r="16" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="78"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="61"/>
     </row>
     <row r="17" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
@@ -3427,147 +3813,147 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="80"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="63"/>
     </row>
     <row r="20" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="81"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="83"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="66"/>
     </row>
     <row r="21" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="81"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="83"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="66"/>
     </row>
     <row r="22" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="81"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="83"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="66"/>
     </row>
     <row r="23" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="81"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="83"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
     </row>
     <row r="24" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="81"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="83"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
     </row>
     <row r="25" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="83"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="66"/>
     </row>
     <row r="26" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="81"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="83"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="66"/>
     </row>
     <row r="27" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="81"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="83"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="66"/>
       <c r="P27" s="23"/>
     </row>
     <row r="28" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="84"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="86"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="69"/>
     </row>
     <row r="29" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3581,20 +3967,20 @@
       <c r="B31" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="46" t="s">
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="48"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="52"/>
       <c r="M31" s="17" t="s">
         <v>16</v>
       </c>
@@ -3603,20 +3989,20 @@
       <c r="B32" s="13">
         <v>1</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="54"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="58" t="s">
+      <c r="D32" s="85"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="60"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="90"/>
       <c r="M32" s="24">
         <v>42250</v>
       </c>
@@ -3625,20 +4011,20 @@
       <c r="B33" s="13">
         <v>2</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="C33" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="54"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="61" t="s">
+      <c r="D33" s="85"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="60"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="90"/>
       <c r="M33" s="24">
         <v>42254</v>
       </c>
@@ -3653,54 +4039,54 @@
       <c r="B36" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="46" t="s">
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="48"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="52"/>
       <c r="P36" s="18"/>
     </row>
     <row r="37" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13">
         <v>1</v>
       </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="38"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="94"/>
+      <c r="L37" s="94"/>
+      <c r="M37" s="41"/>
     </row>
     <row r="38" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13">
         <v>2</v>
       </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="38"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="94"/>
+      <c r="L38" s="94"/>
+      <c r="M38" s="41"/>
     </row>
     <row r="39" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3730,6 +4116,26 @@
     <row r="64" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F31:L31"/>
+    <mergeCell ref="F32:L32"/>
+    <mergeCell ref="F33:L33"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
     <mergeCell ref="B14:M16"/>
     <mergeCell ref="B19:M28"/>
     <mergeCell ref="L9:M9"/>
@@ -3740,26 +4146,6 @@
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F31:L31"/>
-    <mergeCell ref="F32:L32"/>
-    <mergeCell ref="F33:L33"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H38:M38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -3773,4 +4159,1142 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
+    <col min="4" max="7" width="8.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="9.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.625" style="1" customWidth="1"/>
+    <col min="15" max="256" width="9" style="1"/>
+    <col min="257" max="257" width="2.875" style="1" customWidth="1"/>
+    <col min="258" max="258" width="6.25" style="1" customWidth="1"/>
+    <col min="259" max="263" width="8.875" style="1" customWidth="1"/>
+    <col min="264" max="265" width="9" style="1"/>
+    <col min="266" max="266" width="9.5" style="1" customWidth="1"/>
+    <col min="267" max="267" width="6.625" style="1" customWidth="1"/>
+    <col min="268" max="268" width="9.625" style="1" customWidth="1"/>
+    <col min="269" max="269" width="12.625" style="1" customWidth="1"/>
+    <col min="270" max="270" width="6.75" style="1" customWidth="1"/>
+    <col min="271" max="512" width="9" style="1"/>
+    <col min="513" max="513" width="2.875" style="1" customWidth="1"/>
+    <col min="514" max="514" width="6.25" style="1" customWidth="1"/>
+    <col min="515" max="519" width="8.875" style="1" customWidth="1"/>
+    <col min="520" max="521" width="9" style="1"/>
+    <col min="522" max="522" width="9.5" style="1" customWidth="1"/>
+    <col min="523" max="523" width="6.625" style="1" customWidth="1"/>
+    <col min="524" max="524" width="9.625" style="1" customWidth="1"/>
+    <col min="525" max="525" width="12.625" style="1" customWidth="1"/>
+    <col min="526" max="526" width="6.75" style="1" customWidth="1"/>
+    <col min="527" max="768" width="9" style="1"/>
+    <col min="769" max="769" width="2.875" style="1" customWidth="1"/>
+    <col min="770" max="770" width="6.25" style="1" customWidth="1"/>
+    <col min="771" max="775" width="8.875" style="1" customWidth="1"/>
+    <col min="776" max="777" width="9" style="1"/>
+    <col min="778" max="778" width="9.5" style="1" customWidth="1"/>
+    <col min="779" max="779" width="6.625" style="1" customWidth="1"/>
+    <col min="780" max="780" width="9.625" style="1" customWidth="1"/>
+    <col min="781" max="781" width="12.625" style="1" customWidth="1"/>
+    <col min="782" max="782" width="6.75" style="1" customWidth="1"/>
+    <col min="783" max="1024" width="9" style="1"/>
+    <col min="1025" max="1025" width="2.875" style="1" customWidth="1"/>
+    <col min="1026" max="1026" width="6.25" style="1" customWidth="1"/>
+    <col min="1027" max="1031" width="8.875" style="1" customWidth="1"/>
+    <col min="1032" max="1033" width="9" style="1"/>
+    <col min="1034" max="1034" width="9.5" style="1" customWidth="1"/>
+    <col min="1035" max="1035" width="6.625" style="1" customWidth="1"/>
+    <col min="1036" max="1036" width="9.625" style="1" customWidth="1"/>
+    <col min="1037" max="1037" width="12.625" style="1" customWidth="1"/>
+    <col min="1038" max="1038" width="6.75" style="1" customWidth="1"/>
+    <col min="1039" max="1280" width="9" style="1"/>
+    <col min="1281" max="1281" width="2.875" style="1" customWidth="1"/>
+    <col min="1282" max="1282" width="6.25" style="1" customWidth="1"/>
+    <col min="1283" max="1287" width="8.875" style="1" customWidth="1"/>
+    <col min="1288" max="1289" width="9" style="1"/>
+    <col min="1290" max="1290" width="9.5" style="1" customWidth="1"/>
+    <col min="1291" max="1291" width="6.625" style="1" customWidth="1"/>
+    <col min="1292" max="1292" width="9.625" style="1" customWidth="1"/>
+    <col min="1293" max="1293" width="12.625" style="1" customWidth="1"/>
+    <col min="1294" max="1294" width="6.75" style="1" customWidth="1"/>
+    <col min="1295" max="1536" width="9" style="1"/>
+    <col min="1537" max="1537" width="2.875" style="1" customWidth="1"/>
+    <col min="1538" max="1538" width="6.25" style="1" customWidth="1"/>
+    <col min="1539" max="1543" width="8.875" style="1" customWidth="1"/>
+    <col min="1544" max="1545" width="9" style="1"/>
+    <col min="1546" max="1546" width="9.5" style="1" customWidth="1"/>
+    <col min="1547" max="1547" width="6.625" style="1" customWidth="1"/>
+    <col min="1548" max="1548" width="9.625" style="1" customWidth="1"/>
+    <col min="1549" max="1549" width="12.625" style="1" customWidth="1"/>
+    <col min="1550" max="1550" width="6.75" style="1" customWidth="1"/>
+    <col min="1551" max="1792" width="9" style="1"/>
+    <col min="1793" max="1793" width="2.875" style="1" customWidth="1"/>
+    <col min="1794" max="1794" width="6.25" style="1" customWidth="1"/>
+    <col min="1795" max="1799" width="8.875" style="1" customWidth="1"/>
+    <col min="1800" max="1801" width="9" style="1"/>
+    <col min="1802" max="1802" width="9.5" style="1" customWidth="1"/>
+    <col min="1803" max="1803" width="6.625" style="1" customWidth="1"/>
+    <col min="1804" max="1804" width="9.625" style="1" customWidth="1"/>
+    <col min="1805" max="1805" width="12.625" style="1" customWidth="1"/>
+    <col min="1806" max="1806" width="6.75" style="1" customWidth="1"/>
+    <col min="1807" max="2048" width="9" style="1"/>
+    <col min="2049" max="2049" width="2.875" style="1" customWidth="1"/>
+    <col min="2050" max="2050" width="6.25" style="1" customWidth="1"/>
+    <col min="2051" max="2055" width="8.875" style="1" customWidth="1"/>
+    <col min="2056" max="2057" width="9" style="1"/>
+    <col min="2058" max="2058" width="9.5" style="1" customWidth="1"/>
+    <col min="2059" max="2059" width="6.625" style="1" customWidth="1"/>
+    <col min="2060" max="2060" width="9.625" style="1" customWidth="1"/>
+    <col min="2061" max="2061" width="12.625" style="1" customWidth="1"/>
+    <col min="2062" max="2062" width="6.75" style="1" customWidth="1"/>
+    <col min="2063" max="2304" width="9" style="1"/>
+    <col min="2305" max="2305" width="2.875" style="1" customWidth="1"/>
+    <col min="2306" max="2306" width="6.25" style="1" customWidth="1"/>
+    <col min="2307" max="2311" width="8.875" style="1" customWidth="1"/>
+    <col min="2312" max="2313" width="9" style="1"/>
+    <col min="2314" max="2314" width="9.5" style="1" customWidth="1"/>
+    <col min="2315" max="2315" width="6.625" style="1" customWidth="1"/>
+    <col min="2316" max="2316" width="9.625" style="1" customWidth="1"/>
+    <col min="2317" max="2317" width="12.625" style="1" customWidth="1"/>
+    <col min="2318" max="2318" width="6.75" style="1" customWidth="1"/>
+    <col min="2319" max="2560" width="9" style="1"/>
+    <col min="2561" max="2561" width="2.875" style="1" customWidth="1"/>
+    <col min="2562" max="2562" width="6.25" style="1" customWidth="1"/>
+    <col min="2563" max="2567" width="8.875" style="1" customWidth="1"/>
+    <col min="2568" max="2569" width="9" style="1"/>
+    <col min="2570" max="2570" width="9.5" style="1" customWidth="1"/>
+    <col min="2571" max="2571" width="6.625" style="1" customWidth="1"/>
+    <col min="2572" max="2572" width="9.625" style="1" customWidth="1"/>
+    <col min="2573" max="2573" width="12.625" style="1" customWidth="1"/>
+    <col min="2574" max="2574" width="6.75" style="1" customWidth="1"/>
+    <col min="2575" max="2816" width="9" style="1"/>
+    <col min="2817" max="2817" width="2.875" style="1" customWidth="1"/>
+    <col min="2818" max="2818" width="6.25" style="1" customWidth="1"/>
+    <col min="2819" max="2823" width="8.875" style="1" customWidth="1"/>
+    <col min="2824" max="2825" width="9" style="1"/>
+    <col min="2826" max="2826" width="9.5" style="1" customWidth="1"/>
+    <col min="2827" max="2827" width="6.625" style="1" customWidth="1"/>
+    <col min="2828" max="2828" width="9.625" style="1" customWidth="1"/>
+    <col min="2829" max="2829" width="12.625" style="1" customWidth="1"/>
+    <col min="2830" max="2830" width="6.75" style="1" customWidth="1"/>
+    <col min="2831" max="3072" width="9" style="1"/>
+    <col min="3073" max="3073" width="2.875" style="1" customWidth="1"/>
+    <col min="3074" max="3074" width="6.25" style="1" customWidth="1"/>
+    <col min="3075" max="3079" width="8.875" style="1" customWidth="1"/>
+    <col min="3080" max="3081" width="9" style="1"/>
+    <col min="3082" max="3082" width="9.5" style="1" customWidth="1"/>
+    <col min="3083" max="3083" width="6.625" style="1" customWidth="1"/>
+    <col min="3084" max="3084" width="9.625" style="1" customWidth="1"/>
+    <col min="3085" max="3085" width="12.625" style="1" customWidth="1"/>
+    <col min="3086" max="3086" width="6.75" style="1" customWidth="1"/>
+    <col min="3087" max="3328" width="9" style="1"/>
+    <col min="3329" max="3329" width="2.875" style="1" customWidth="1"/>
+    <col min="3330" max="3330" width="6.25" style="1" customWidth="1"/>
+    <col min="3331" max="3335" width="8.875" style="1" customWidth="1"/>
+    <col min="3336" max="3337" width="9" style="1"/>
+    <col min="3338" max="3338" width="9.5" style="1" customWidth="1"/>
+    <col min="3339" max="3339" width="6.625" style="1" customWidth="1"/>
+    <col min="3340" max="3340" width="9.625" style="1" customWidth="1"/>
+    <col min="3341" max="3341" width="12.625" style="1" customWidth="1"/>
+    <col min="3342" max="3342" width="6.75" style="1" customWidth="1"/>
+    <col min="3343" max="3584" width="9" style="1"/>
+    <col min="3585" max="3585" width="2.875" style="1" customWidth="1"/>
+    <col min="3586" max="3586" width="6.25" style="1" customWidth="1"/>
+    <col min="3587" max="3591" width="8.875" style="1" customWidth="1"/>
+    <col min="3592" max="3593" width="9" style="1"/>
+    <col min="3594" max="3594" width="9.5" style="1" customWidth="1"/>
+    <col min="3595" max="3595" width="6.625" style="1" customWidth="1"/>
+    <col min="3596" max="3596" width="9.625" style="1" customWidth="1"/>
+    <col min="3597" max="3597" width="12.625" style="1" customWidth="1"/>
+    <col min="3598" max="3598" width="6.75" style="1" customWidth="1"/>
+    <col min="3599" max="3840" width="9" style="1"/>
+    <col min="3841" max="3841" width="2.875" style="1" customWidth="1"/>
+    <col min="3842" max="3842" width="6.25" style="1" customWidth="1"/>
+    <col min="3843" max="3847" width="8.875" style="1" customWidth="1"/>
+    <col min="3848" max="3849" width="9" style="1"/>
+    <col min="3850" max="3850" width="9.5" style="1" customWidth="1"/>
+    <col min="3851" max="3851" width="6.625" style="1" customWidth="1"/>
+    <col min="3852" max="3852" width="9.625" style="1" customWidth="1"/>
+    <col min="3853" max="3853" width="12.625" style="1" customWidth="1"/>
+    <col min="3854" max="3854" width="6.75" style="1" customWidth="1"/>
+    <col min="3855" max="4096" width="9" style="1"/>
+    <col min="4097" max="4097" width="2.875" style="1" customWidth="1"/>
+    <col min="4098" max="4098" width="6.25" style="1" customWidth="1"/>
+    <col min="4099" max="4103" width="8.875" style="1" customWidth="1"/>
+    <col min="4104" max="4105" width="9" style="1"/>
+    <col min="4106" max="4106" width="9.5" style="1" customWidth="1"/>
+    <col min="4107" max="4107" width="6.625" style="1" customWidth="1"/>
+    <col min="4108" max="4108" width="9.625" style="1" customWidth="1"/>
+    <col min="4109" max="4109" width="12.625" style="1" customWidth="1"/>
+    <col min="4110" max="4110" width="6.75" style="1" customWidth="1"/>
+    <col min="4111" max="4352" width="9" style="1"/>
+    <col min="4353" max="4353" width="2.875" style="1" customWidth="1"/>
+    <col min="4354" max="4354" width="6.25" style="1" customWidth="1"/>
+    <col min="4355" max="4359" width="8.875" style="1" customWidth="1"/>
+    <col min="4360" max="4361" width="9" style="1"/>
+    <col min="4362" max="4362" width="9.5" style="1" customWidth="1"/>
+    <col min="4363" max="4363" width="6.625" style="1" customWidth="1"/>
+    <col min="4364" max="4364" width="9.625" style="1" customWidth="1"/>
+    <col min="4365" max="4365" width="12.625" style="1" customWidth="1"/>
+    <col min="4366" max="4366" width="6.75" style="1" customWidth="1"/>
+    <col min="4367" max="4608" width="9" style="1"/>
+    <col min="4609" max="4609" width="2.875" style="1" customWidth="1"/>
+    <col min="4610" max="4610" width="6.25" style="1" customWidth="1"/>
+    <col min="4611" max="4615" width="8.875" style="1" customWidth="1"/>
+    <col min="4616" max="4617" width="9" style="1"/>
+    <col min="4618" max="4618" width="9.5" style="1" customWidth="1"/>
+    <col min="4619" max="4619" width="6.625" style="1" customWidth="1"/>
+    <col min="4620" max="4620" width="9.625" style="1" customWidth="1"/>
+    <col min="4621" max="4621" width="12.625" style="1" customWidth="1"/>
+    <col min="4622" max="4622" width="6.75" style="1" customWidth="1"/>
+    <col min="4623" max="4864" width="9" style="1"/>
+    <col min="4865" max="4865" width="2.875" style="1" customWidth="1"/>
+    <col min="4866" max="4866" width="6.25" style="1" customWidth="1"/>
+    <col min="4867" max="4871" width="8.875" style="1" customWidth="1"/>
+    <col min="4872" max="4873" width="9" style="1"/>
+    <col min="4874" max="4874" width="9.5" style="1" customWidth="1"/>
+    <col min="4875" max="4875" width="6.625" style="1" customWidth="1"/>
+    <col min="4876" max="4876" width="9.625" style="1" customWidth="1"/>
+    <col min="4877" max="4877" width="12.625" style="1" customWidth="1"/>
+    <col min="4878" max="4878" width="6.75" style="1" customWidth="1"/>
+    <col min="4879" max="5120" width="9" style="1"/>
+    <col min="5121" max="5121" width="2.875" style="1" customWidth="1"/>
+    <col min="5122" max="5122" width="6.25" style="1" customWidth="1"/>
+    <col min="5123" max="5127" width="8.875" style="1" customWidth="1"/>
+    <col min="5128" max="5129" width="9" style="1"/>
+    <col min="5130" max="5130" width="9.5" style="1" customWidth="1"/>
+    <col min="5131" max="5131" width="6.625" style="1" customWidth="1"/>
+    <col min="5132" max="5132" width="9.625" style="1" customWidth="1"/>
+    <col min="5133" max="5133" width="12.625" style="1" customWidth="1"/>
+    <col min="5134" max="5134" width="6.75" style="1" customWidth="1"/>
+    <col min="5135" max="5376" width="9" style="1"/>
+    <col min="5377" max="5377" width="2.875" style="1" customWidth="1"/>
+    <col min="5378" max="5378" width="6.25" style="1" customWidth="1"/>
+    <col min="5379" max="5383" width="8.875" style="1" customWidth="1"/>
+    <col min="5384" max="5385" width="9" style="1"/>
+    <col min="5386" max="5386" width="9.5" style="1" customWidth="1"/>
+    <col min="5387" max="5387" width="6.625" style="1" customWidth="1"/>
+    <col min="5388" max="5388" width="9.625" style="1" customWidth="1"/>
+    <col min="5389" max="5389" width="12.625" style="1" customWidth="1"/>
+    <col min="5390" max="5390" width="6.75" style="1" customWidth="1"/>
+    <col min="5391" max="5632" width="9" style="1"/>
+    <col min="5633" max="5633" width="2.875" style="1" customWidth="1"/>
+    <col min="5634" max="5634" width="6.25" style="1" customWidth="1"/>
+    <col min="5635" max="5639" width="8.875" style="1" customWidth="1"/>
+    <col min="5640" max="5641" width="9" style="1"/>
+    <col min="5642" max="5642" width="9.5" style="1" customWidth="1"/>
+    <col min="5643" max="5643" width="6.625" style="1" customWidth="1"/>
+    <col min="5644" max="5644" width="9.625" style="1" customWidth="1"/>
+    <col min="5645" max="5645" width="12.625" style="1" customWidth="1"/>
+    <col min="5646" max="5646" width="6.75" style="1" customWidth="1"/>
+    <col min="5647" max="5888" width="9" style="1"/>
+    <col min="5889" max="5889" width="2.875" style="1" customWidth="1"/>
+    <col min="5890" max="5890" width="6.25" style="1" customWidth="1"/>
+    <col min="5891" max="5895" width="8.875" style="1" customWidth="1"/>
+    <col min="5896" max="5897" width="9" style="1"/>
+    <col min="5898" max="5898" width="9.5" style="1" customWidth="1"/>
+    <col min="5899" max="5899" width="6.625" style="1" customWidth="1"/>
+    <col min="5900" max="5900" width="9.625" style="1" customWidth="1"/>
+    <col min="5901" max="5901" width="12.625" style="1" customWidth="1"/>
+    <col min="5902" max="5902" width="6.75" style="1" customWidth="1"/>
+    <col min="5903" max="6144" width="9" style="1"/>
+    <col min="6145" max="6145" width="2.875" style="1" customWidth="1"/>
+    <col min="6146" max="6146" width="6.25" style="1" customWidth="1"/>
+    <col min="6147" max="6151" width="8.875" style="1" customWidth="1"/>
+    <col min="6152" max="6153" width="9" style="1"/>
+    <col min="6154" max="6154" width="9.5" style="1" customWidth="1"/>
+    <col min="6155" max="6155" width="6.625" style="1" customWidth="1"/>
+    <col min="6156" max="6156" width="9.625" style="1" customWidth="1"/>
+    <col min="6157" max="6157" width="12.625" style="1" customWidth="1"/>
+    <col min="6158" max="6158" width="6.75" style="1" customWidth="1"/>
+    <col min="6159" max="6400" width="9" style="1"/>
+    <col min="6401" max="6401" width="2.875" style="1" customWidth="1"/>
+    <col min="6402" max="6402" width="6.25" style="1" customWidth="1"/>
+    <col min="6403" max="6407" width="8.875" style="1" customWidth="1"/>
+    <col min="6408" max="6409" width="9" style="1"/>
+    <col min="6410" max="6410" width="9.5" style="1" customWidth="1"/>
+    <col min="6411" max="6411" width="6.625" style="1" customWidth="1"/>
+    <col min="6412" max="6412" width="9.625" style="1" customWidth="1"/>
+    <col min="6413" max="6413" width="12.625" style="1" customWidth="1"/>
+    <col min="6414" max="6414" width="6.75" style="1" customWidth="1"/>
+    <col min="6415" max="6656" width="9" style="1"/>
+    <col min="6657" max="6657" width="2.875" style="1" customWidth="1"/>
+    <col min="6658" max="6658" width="6.25" style="1" customWidth="1"/>
+    <col min="6659" max="6663" width="8.875" style="1" customWidth="1"/>
+    <col min="6664" max="6665" width="9" style="1"/>
+    <col min="6666" max="6666" width="9.5" style="1" customWidth="1"/>
+    <col min="6667" max="6667" width="6.625" style="1" customWidth="1"/>
+    <col min="6668" max="6668" width="9.625" style="1" customWidth="1"/>
+    <col min="6669" max="6669" width="12.625" style="1" customWidth="1"/>
+    <col min="6670" max="6670" width="6.75" style="1" customWidth="1"/>
+    <col min="6671" max="6912" width="9" style="1"/>
+    <col min="6913" max="6913" width="2.875" style="1" customWidth="1"/>
+    <col min="6914" max="6914" width="6.25" style="1" customWidth="1"/>
+    <col min="6915" max="6919" width="8.875" style="1" customWidth="1"/>
+    <col min="6920" max="6921" width="9" style="1"/>
+    <col min="6922" max="6922" width="9.5" style="1" customWidth="1"/>
+    <col min="6923" max="6923" width="6.625" style="1" customWidth="1"/>
+    <col min="6924" max="6924" width="9.625" style="1" customWidth="1"/>
+    <col min="6925" max="6925" width="12.625" style="1" customWidth="1"/>
+    <col min="6926" max="6926" width="6.75" style="1" customWidth="1"/>
+    <col min="6927" max="7168" width="9" style="1"/>
+    <col min="7169" max="7169" width="2.875" style="1" customWidth="1"/>
+    <col min="7170" max="7170" width="6.25" style="1" customWidth="1"/>
+    <col min="7171" max="7175" width="8.875" style="1" customWidth="1"/>
+    <col min="7176" max="7177" width="9" style="1"/>
+    <col min="7178" max="7178" width="9.5" style="1" customWidth="1"/>
+    <col min="7179" max="7179" width="6.625" style="1" customWidth="1"/>
+    <col min="7180" max="7180" width="9.625" style="1" customWidth="1"/>
+    <col min="7181" max="7181" width="12.625" style="1" customWidth="1"/>
+    <col min="7182" max="7182" width="6.75" style="1" customWidth="1"/>
+    <col min="7183" max="7424" width="9" style="1"/>
+    <col min="7425" max="7425" width="2.875" style="1" customWidth="1"/>
+    <col min="7426" max="7426" width="6.25" style="1" customWidth="1"/>
+    <col min="7427" max="7431" width="8.875" style="1" customWidth="1"/>
+    <col min="7432" max="7433" width="9" style="1"/>
+    <col min="7434" max="7434" width="9.5" style="1" customWidth="1"/>
+    <col min="7435" max="7435" width="6.625" style="1" customWidth="1"/>
+    <col min="7436" max="7436" width="9.625" style="1" customWidth="1"/>
+    <col min="7437" max="7437" width="12.625" style="1" customWidth="1"/>
+    <col min="7438" max="7438" width="6.75" style="1" customWidth="1"/>
+    <col min="7439" max="7680" width="9" style="1"/>
+    <col min="7681" max="7681" width="2.875" style="1" customWidth="1"/>
+    <col min="7682" max="7682" width="6.25" style="1" customWidth="1"/>
+    <col min="7683" max="7687" width="8.875" style="1" customWidth="1"/>
+    <col min="7688" max="7689" width="9" style="1"/>
+    <col min="7690" max="7690" width="9.5" style="1" customWidth="1"/>
+    <col min="7691" max="7691" width="6.625" style="1" customWidth="1"/>
+    <col min="7692" max="7692" width="9.625" style="1" customWidth="1"/>
+    <col min="7693" max="7693" width="12.625" style="1" customWidth="1"/>
+    <col min="7694" max="7694" width="6.75" style="1" customWidth="1"/>
+    <col min="7695" max="7936" width="9" style="1"/>
+    <col min="7937" max="7937" width="2.875" style="1" customWidth="1"/>
+    <col min="7938" max="7938" width="6.25" style="1" customWidth="1"/>
+    <col min="7939" max="7943" width="8.875" style="1" customWidth="1"/>
+    <col min="7944" max="7945" width="9" style="1"/>
+    <col min="7946" max="7946" width="9.5" style="1" customWidth="1"/>
+    <col min="7947" max="7947" width="6.625" style="1" customWidth="1"/>
+    <col min="7948" max="7948" width="9.625" style="1" customWidth="1"/>
+    <col min="7949" max="7949" width="12.625" style="1" customWidth="1"/>
+    <col min="7950" max="7950" width="6.75" style="1" customWidth="1"/>
+    <col min="7951" max="8192" width="9" style="1"/>
+    <col min="8193" max="8193" width="2.875" style="1" customWidth="1"/>
+    <col min="8194" max="8194" width="6.25" style="1" customWidth="1"/>
+    <col min="8195" max="8199" width="8.875" style="1" customWidth="1"/>
+    <col min="8200" max="8201" width="9" style="1"/>
+    <col min="8202" max="8202" width="9.5" style="1" customWidth="1"/>
+    <col min="8203" max="8203" width="6.625" style="1" customWidth="1"/>
+    <col min="8204" max="8204" width="9.625" style="1" customWidth="1"/>
+    <col min="8205" max="8205" width="12.625" style="1" customWidth="1"/>
+    <col min="8206" max="8206" width="6.75" style="1" customWidth="1"/>
+    <col min="8207" max="8448" width="9" style="1"/>
+    <col min="8449" max="8449" width="2.875" style="1" customWidth="1"/>
+    <col min="8450" max="8450" width="6.25" style="1" customWidth="1"/>
+    <col min="8451" max="8455" width="8.875" style="1" customWidth="1"/>
+    <col min="8456" max="8457" width="9" style="1"/>
+    <col min="8458" max="8458" width="9.5" style="1" customWidth="1"/>
+    <col min="8459" max="8459" width="6.625" style="1" customWidth="1"/>
+    <col min="8460" max="8460" width="9.625" style="1" customWidth="1"/>
+    <col min="8461" max="8461" width="12.625" style="1" customWidth="1"/>
+    <col min="8462" max="8462" width="6.75" style="1" customWidth="1"/>
+    <col min="8463" max="8704" width="9" style="1"/>
+    <col min="8705" max="8705" width="2.875" style="1" customWidth="1"/>
+    <col min="8706" max="8706" width="6.25" style="1" customWidth="1"/>
+    <col min="8707" max="8711" width="8.875" style="1" customWidth="1"/>
+    <col min="8712" max="8713" width="9" style="1"/>
+    <col min="8714" max="8714" width="9.5" style="1" customWidth="1"/>
+    <col min="8715" max="8715" width="6.625" style="1" customWidth="1"/>
+    <col min="8716" max="8716" width="9.625" style="1" customWidth="1"/>
+    <col min="8717" max="8717" width="12.625" style="1" customWidth="1"/>
+    <col min="8718" max="8718" width="6.75" style="1" customWidth="1"/>
+    <col min="8719" max="8960" width="9" style="1"/>
+    <col min="8961" max="8961" width="2.875" style="1" customWidth="1"/>
+    <col min="8962" max="8962" width="6.25" style="1" customWidth="1"/>
+    <col min="8963" max="8967" width="8.875" style="1" customWidth="1"/>
+    <col min="8968" max="8969" width="9" style="1"/>
+    <col min="8970" max="8970" width="9.5" style="1" customWidth="1"/>
+    <col min="8971" max="8971" width="6.625" style="1" customWidth="1"/>
+    <col min="8972" max="8972" width="9.625" style="1" customWidth="1"/>
+    <col min="8973" max="8973" width="12.625" style="1" customWidth="1"/>
+    <col min="8974" max="8974" width="6.75" style="1" customWidth="1"/>
+    <col min="8975" max="9216" width="9" style="1"/>
+    <col min="9217" max="9217" width="2.875" style="1" customWidth="1"/>
+    <col min="9218" max="9218" width="6.25" style="1" customWidth="1"/>
+    <col min="9219" max="9223" width="8.875" style="1" customWidth="1"/>
+    <col min="9224" max="9225" width="9" style="1"/>
+    <col min="9226" max="9226" width="9.5" style="1" customWidth="1"/>
+    <col min="9227" max="9227" width="6.625" style="1" customWidth="1"/>
+    <col min="9228" max="9228" width="9.625" style="1" customWidth="1"/>
+    <col min="9229" max="9229" width="12.625" style="1" customWidth="1"/>
+    <col min="9230" max="9230" width="6.75" style="1" customWidth="1"/>
+    <col min="9231" max="9472" width="9" style="1"/>
+    <col min="9473" max="9473" width="2.875" style="1" customWidth="1"/>
+    <col min="9474" max="9474" width="6.25" style="1" customWidth="1"/>
+    <col min="9475" max="9479" width="8.875" style="1" customWidth="1"/>
+    <col min="9480" max="9481" width="9" style="1"/>
+    <col min="9482" max="9482" width="9.5" style="1" customWidth="1"/>
+    <col min="9483" max="9483" width="6.625" style="1" customWidth="1"/>
+    <col min="9484" max="9484" width="9.625" style="1" customWidth="1"/>
+    <col min="9485" max="9485" width="12.625" style="1" customWidth="1"/>
+    <col min="9486" max="9486" width="6.75" style="1" customWidth="1"/>
+    <col min="9487" max="9728" width="9" style="1"/>
+    <col min="9729" max="9729" width="2.875" style="1" customWidth="1"/>
+    <col min="9730" max="9730" width="6.25" style="1" customWidth="1"/>
+    <col min="9731" max="9735" width="8.875" style="1" customWidth="1"/>
+    <col min="9736" max="9737" width="9" style="1"/>
+    <col min="9738" max="9738" width="9.5" style="1" customWidth="1"/>
+    <col min="9739" max="9739" width="6.625" style="1" customWidth="1"/>
+    <col min="9740" max="9740" width="9.625" style="1" customWidth="1"/>
+    <col min="9741" max="9741" width="12.625" style="1" customWidth="1"/>
+    <col min="9742" max="9742" width="6.75" style="1" customWidth="1"/>
+    <col min="9743" max="9984" width="9" style="1"/>
+    <col min="9985" max="9985" width="2.875" style="1" customWidth="1"/>
+    <col min="9986" max="9986" width="6.25" style="1" customWidth="1"/>
+    <col min="9987" max="9991" width="8.875" style="1" customWidth="1"/>
+    <col min="9992" max="9993" width="9" style="1"/>
+    <col min="9994" max="9994" width="9.5" style="1" customWidth="1"/>
+    <col min="9995" max="9995" width="6.625" style="1" customWidth="1"/>
+    <col min="9996" max="9996" width="9.625" style="1" customWidth="1"/>
+    <col min="9997" max="9997" width="12.625" style="1" customWidth="1"/>
+    <col min="9998" max="9998" width="6.75" style="1" customWidth="1"/>
+    <col min="9999" max="10240" width="9" style="1"/>
+    <col min="10241" max="10241" width="2.875" style="1" customWidth="1"/>
+    <col min="10242" max="10242" width="6.25" style="1" customWidth="1"/>
+    <col min="10243" max="10247" width="8.875" style="1" customWidth="1"/>
+    <col min="10248" max="10249" width="9" style="1"/>
+    <col min="10250" max="10250" width="9.5" style="1" customWidth="1"/>
+    <col min="10251" max="10251" width="6.625" style="1" customWidth="1"/>
+    <col min="10252" max="10252" width="9.625" style="1" customWidth="1"/>
+    <col min="10253" max="10253" width="12.625" style="1" customWidth="1"/>
+    <col min="10254" max="10254" width="6.75" style="1" customWidth="1"/>
+    <col min="10255" max="10496" width="9" style="1"/>
+    <col min="10497" max="10497" width="2.875" style="1" customWidth="1"/>
+    <col min="10498" max="10498" width="6.25" style="1" customWidth="1"/>
+    <col min="10499" max="10503" width="8.875" style="1" customWidth="1"/>
+    <col min="10504" max="10505" width="9" style="1"/>
+    <col min="10506" max="10506" width="9.5" style="1" customWidth="1"/>
+    <col min="10507" max="10507" width="6.625" style="1" customWidth="1"/>
+    <col min="10508" max="10508" width="9.625" style="1" customWidth="1"/>
+    <col min="10509" max="10509" width="12.625" style="1" customWidth="1"/>
+    <col min="10510" max="10510" width="6.75" style="1" customWidth="1"/>
+    <col min="10511" max="10752" width="9" style="1"/>
+    <col min="10753" max="10753" width="2.875" style="1" customWidth="1"/>
+    <col min="10754" max="10754" width="6.25" style="1" customWidth="1"/>
+    <col min="10755" max="10759" width="8.875" style="1" customWidth="1"/>
+    <col min="10760" max="10761" width="9" style="1"/>
+    <col min="10762" max="10762" width="9.5" style="1" customWidth="1"/>
+    <col min="10763" max="10763" width="6.625" style="1" customWidth="1"/>
+    <col min="10764" max="10764" width="9.625" style="1" customWidth="1"/>
+    <col min="10765" max="10765" width="12.625" style="1" customWidth="1"/>
+    <col min="10766" max="10766" width="6.75" style="1" customWidth="1"/>
+    <col min="10767" max="11008" width="9" style="1"/>
+    <col min="11009" max="11009" width="2.875" style="1" customWidth="1"/>
+    <col min="11010" max="11010" width="6.25" style="1" customWidth="1"/>
+    <col min="11011" max="11015" width="8.875" style="1" customWidth="1"/>
+    <col min="11016" max="11017" width="9" style="1"/>
+    <col min="11018" max="11018" width="9.5" style="1" customWidth="1"/>
+    <col min="11019" max="11019" width="6.625" style="1" customWidth="1"/>
+    <col min="11020" max="11020" width="9.625" style="1" customWidth="1"/>
+    <col min="11021" max="11021" width="12.625" style="1" customWidth="1"/>
+    <col min="11022" max="11022" width="6.75" style="1" customWidth="1"/>
+    <col min="11023" max="11264" width="9" style="1"/>
+    <col min="11265" max="11265" width="2.875" style="1" customWidth="1"/>
+    <col min="11266" max="11266" width="6.25" style="1" customWidth="1"/>
+    <col min="11267" max="11271" width="8.875" style="1" customWidth="1"/>
+    <col min="11272" max="11273" width="9" style="1"/>
+    <col min="11274" max="11274" width="9.5" style="1" customWidth="1"/>
+    <col min="11275" max="11275" width="6.625" style="1" customWidth="1"/>
+    <col min="11276" max="11276" width="9.625" style="1" customWidth="1"/>
+    <col min="11277" max="11277" width="12.625" style="1" customWidth="1"/>
+    <col min="11278" max="11278" width="6.75" style="1" customWidth="1"/>
+    <col min="11279" max="11520" width="9" style="1"/>
+    <col min="11521" max="11521" width="2.875" style="1" customWidth="1"/>
+    <col min="11522" max="11522" width="6.25" style="1" customWidth="1"/>
+    <col min="11523" max="11527" width="8.875" style="1" customWidth="1"/>
+    <col min="11528" max="11529" width="9" style="1"/>
+    <col min="11530" max="11530" width="9.5" style="1" customWidth="1"/>
+    <col min="11531" max="11531" width="6.625" style="1" customWidth="1"/>
+    <col min="11532" max="11532" width="9.625" style="1" customWidth="1"/>
+    <col min="11533" max="11533" width="12.625" style="1" customWidth="1"/>
+    <col min="11534" max="11534" width="6.75" style="1" customWidth="1"/>
+    <col min="11535" max="11776" width="9" style="1"/>
+    <col min="11777" max="11777" width="2.875" style="1" customWidth="1"/>
+    <col min="11778" max="11778" width="6.25" style="1" customWidth="1"/>
+    <col min="11779" max="11783" width="8.875" style="1" customWidth="1"/>
+    <col min="11784" max="11785" width="9" style="1"/>
+    <col min="11786" max="11786" width="9.5" style="1" customWidth="1"/>
+    <col min="11787" max="11787" width="6.625" style="1" customWidth="1"/>
+    <col min="11788" max="11788" width="9.625" style="1" customWidth="1"/>
+    <col min="11789" max="11789" width="12.625" style="1" customWidth="1"/>
+    <col min="11790" max="11790" width="6.75" style="1" customWidth="1"/>
+    <col min="11791" max="12032" width="9" style="1"/>
+    <col min="12033" max="12033" width="2.875" style="1" customWidth="1"/>
+    <col min="12034" max="12034" width="6.25" style="1" customWidth="1"/>
+    <col min="12035" max="12039" width="8.875" style="1" customWidth="1"/>
+    <col min="12040" max="12041" width="9" style="1"/>
+    <col min="12042" max="12042" width="9.5" style="1" customWidth="1"/>
+    <col min="12043" max="12043" width="6.625" style="1" customWidth="1"/>
+    <col min="12044" max="12044" width="9.625" style="1" customWidth="1"/>
+    <col min="12045" max="12045" width="12.625" style="1" customWidth="1"/>
+    <col min="12046" max="12046" width="6.75" style="1" customWidth="1"/>
+    <col min="12047" max="12288" width="9" style="1"/>
+    <col min="12289" max="12289" width="2.875" style="1" customWidth="1"/>
+    <col min="12290" max="12290" width="6.25" style="1" customWidth="1"/>
+    <col min="12291" max="12295" width="8.875" style="1" customWidth="1"/>
+    <col min="12296" max="12297" width="9" style="1"/>
+    <col min="12298" max="12298" width="9.5" style="1" customWidth="1"/>
+    <col min="12299" max="12299" width="6.625" style="1" customWidth="1"/>
+    <col min="12300" max="12300" width="9.625" style="1" customWidth="1"/>
+    <col min="12301" max="12301" width="12.625" style="1" customWidth="1"/>
+    <col min="12302" max="12302" width="6.75" style="1" customWidth="1"/>
+    <col min="12303" max="12544" width="9" style="1"/>
+    <col min="12545" max="12545" width="2.875" style="1" customWidth="1"/>
+    <col min="12546" max="12546" width="6.25" style="1" customWidth="1"/>
+    <col min="12547" max="12551" width="8.875" style="1" customWidth="1"/>
+    <col min="12552" max="12553" width="9" style="1"/>
+    <col min="12554" max="12554" width="9.5" style="1" customWidth="1"/>
+    <col min="12555" max="12555" width="6.625" style="1" customWidth="1"/>
+    <col min="12556" max="12556" width="9.625" style="1" customWidth="1"/>
+    <col min="12557" max="12557" width="12.625" style="1" customWidth="1"/>
+    <col min="12558" max="12558" width="6.75" style="1" customWidth="1"/>
+    <col min="12559" max="12800" width="9" style="1"/>
+    <col min="12801" max="12801" width="2.875" style="1" customWidth="1"/>
+    <col min="12802" max="12802" width="6.25" style="1" customWidth="1"/>
+    <col min="12803" max="12807" width="8.875" style="1" customWidth="1"/>
+    <col min="12808" max="12809" width="9" style="1"/>
+    <col min="12810" max="12810" width="9.5" style="1" customWidth="1"/>
+    <col min="12811" max="12811" width="6.625" style="1" customWidth="1"/>
+    <col min="12812" max="12812" width="9.625" style="1" customWidth="1"/>
+    <col min="12813" max="12813" width="12.625" style="1" customWidth="1"/>
+    <col min="12814" max="12814" width="6.75" style="1" customWidth="1"/>
+    <col min="12815" max="13056" width="9" style="1"/>
+    <col min="13057" max="13057" width="2.875" style="1" customWidth="1"/>
+    <col min="13058" max="13058" width="6.25" style="1" customWidth="1"/>
+    <col min="13059" max="13063" width="8.875" style="1" customWidth="1"/>
+    <col min="13064" max="13065" width="9" style="1"/>
+    <col min="13066" max="13066" width="9.5" style="1" customWidth="1"/>
+    <col min="13067" max="13067" width="6.625" style="1" customWidth="1"/>
+    <col min="13068" max="13068" width="9.625" style="1" customWidth="1"/>
+    <col min="13069" max="13069" width="12.625" style="1" customWidth="1"/>
+    <col min="13070" max="13070" width="6.75" style="1" customWidth="1"/>
+    <col min="13071" max="13312" width="9" style="1"/>
+    <col min="13313" max="13313" width="2.875" style="1" customWidth="1"/>
+    <col min="13314" max="13314" width="6.25" style="1" customWidth="1"/>
+    <col min="13315" max="13319" width="8.875" style="1" customWidth="1"/>
+    <col min="13320" max="13321" width="9" style="1"/>
+    <col min="13322" max="13322" width="9.5" style="1" customWidth="1"/>
+    <col min="13323" max="13323" width="6.625" style="1" customWidth="1"/>
+    <col min="13324" max="13324" width="9.625" style="1" customWidth="1"/>
+    <col min="13325" max="13325" width="12.625" style="1" customWidth="1"/>
+    <col min="13326" max="13326" width="6.75" style="1" customWidth="1"/>
+    <col min="13327" max="13568" width="9" style="1"/>
+    <col min="13569" max="13569" width="2.875" style="1" customWidth="1"/>
+    <col min="13570" max="13570" width="6.25" style="1" customWidth="1"/>
+    <col min="13571" max="13575" width="8.875" style="1" customWidth="1"/>
+    <col min="13576" max="13577" width="9" style="1"/>
+    <col min="13578" max="13578" width="9.5" style="1" customWidth="1"/>
+    <col min="13579" max="13579" width="6.625" style="1" customWidth="1"/>
+    <col min="13580" max="13580" width="9.625" style="1" customWidth="1"/>
+    <col min="13581" max="13581" width="12.625" style="1" customWidth="1"/>
+    <col min="13582" max="13582" width="6.75" style="1" customWidth="1"/>
+    <col min="13583" max="13824" width="9" style="1"/>
+    <col min="13825" max="13825" width="2.875" style="1" customWidth="1"/>
+    <col min="13826" max="13826" width="6.25" style="1" customWidth="1"/>
+    <col min="13827" max="13831" width="8.875" style="1" customWidth="1"/>
+    <col min="13832" max="13833" width="9" style="1"/>
+    <col min="13834" max="13834" width="9.5" style="1" customWidth="1"/>
+    <col min="13835" max="13835" width="6.625" style="1" customWidth="1"/>
+    <col min="13836" max="13836" width="9.625" style="1" customWidth="1"/>
+    <col min="13837" max="13837" width="12.625" style="1" customWidth="1"/>
+    <col min="13838" max="13838" width="6.75" style="1" customWidth="1"/>
+    <col min="13839" max="14080" width="9" style="1"/>
+    <col min="14081" max="14081" width="2.875" style="1" customWidth="1"/>
+    <col min="14082" max="14082" width="6.25" style="1" customWidth="1"/>
+    <col min="14083" max="14087" width="8.875" style="1" customWidth="1"/>
+    <col min="14088" max="14089" width="9" style="1"/>
+    <col min="14090" max="14090" width="9.5" style="1" customWidth="1"/>
+    <col min="14091" max="14091" width="6.625" style="1" customWidth="1"/>
+    <col min="14092" max="14092" width="9.625" style="1" customWidth="1"/>
+    <col min="14093" max="14093" width="12.625" style="1" customWidth="1"/>
+    <col min="14094" max="14094" width="6.75" style="1" customWidth="1"/>
+    <col min="14095" max="14336" width="9" style="1"/>
+    <col min="14337" max="14337" width="2.875" style="1" customWidth="1"/>
+    <col min="14338" max="14338" width="6.25" style="1" customWidth="1"/>
+    <col min="14339" max="14343" width="8.875" style="1" customWidth="1"/>
+    <col min="14344" max="14345" width="9" style="1"/>
+    <col min="14346" max="14346" width="9.5" style="1" customWidth="1"/>
+    <col min="14347" max="14347" width="6.625" style="1" customWidth="1"/>
+    <col min="14348" max="14348" width="9.625" style="1" customWidth="1"/>
+    <col min="14349" max="14349" width="12.625" style="1" customWidth="1"/>
+    <col min="14350" max="14350" width="6.75" style="1" customWidth="1"/>
+    <col min="14351" max="14592" width="9" style="1"/>
+    <col min="14593" max="14593" width="2.875" style="1" customWidth="1"/>
+    <col min="14594" max="14594" width="6.25" style="1" customWidth="1"/>
+    <col min="14595" max="14599" width="8.875" style="1" customWidth="1"/>
+    <col min="14600" max="14601" width="9" style="1"/>
+    <col min="14602" max="14602" width="9.5" style="1" customWidth="1"/>
+    <col min="14603" max="14603" width="6.625" style="1" customWidth="1"/>
+    <col min="14604" max="14604" width="9.625" style="1" customWidth="1"/>
+    <col min="14605" max="14605" width="12.625" style="1" customWidth="1"/>
+    <col min="14606" max="14606" width="6.75" style="1" customWidth="1"/>
+    <col min="14607" max="14848" width="9" style="1"/>
+    <col min="14849" max="14849" width="2.875" style="1" customWidth="1"/>
+    <col min="14850" max="14850" width="6.25" style="1" customWidth="1"/>
+    <col min="14851" max="14855" width="8.875" style="1" customWidth="1"/>
+    <col min="14856" max="14857" width="9" style="1"/>
+    <col min="14858" max="14858" width="9.5" style="1" customWidth="1"/>
+    <col min="14859" max="14859" width="6.625" style="1" customWidth="1"/>
+    <col min="14860" max="14860" width="9.625" style="1" customWidth="1"/>
+    <col min="14861" max="14861" width="12.625" style="1" customWidth="1"/>
+    <col min="14862" max="14862" width="6.75" style="1" customWidth="1"/>
+    <col min="14863" max="15104" width="9" style="1"/>
+    <col min="15105" max="15105" width="2.875" style="1" customWidth="1"/>
+    <col min="15106" max="15106" width="6.25" style="1" customWidth="1"/>
+    <col min="15107" max="15111" width="8.875" style="1" customWidth="1"/>
+    <col min="15112" max="15113" width="9" style="1"/>
+    <col min="15114" max="15114" width="9.5" style="1" customWidth="1"/>
+    <col min="15115" max="15115" width="6.625" style="1" customWidth="1"/>
+    <col min="15116" max="15116" width="9.625" style="1" customWidth="1"/>
+    <col min="15117" max="15117" width="12.625" style="1" customWidth="1"/>
+    <col min="15118" max="15118" width="6.75" style="1" customWidth="1"/>
+    <col min="15119" max="15360" width="9" style="1"/>
+    <col min="15361" max="15361" width="2.875" style="1" customWidth="1"/>
+    <col min="15362" max="15362" width="6.25" style="1" customWidth="1"/>
+    <col min="15363" max="15367" width="8.875" style="1" customWidth="1"/>
+    <col min="15368" max="15369" width="9" style="1"/>
+    <col min="15370" max="15370" width="9.5" style="1" customWidth="1"/>
+    <col min="15371" max="15371" width="6.625" style="1" customWidth="1"/>
+    <col min="15372" max="15372" width="9.625" style="1" customWidth="1"/>
+    <col min="15373" max="15373" width="12.625" style="1" customWidth="1"/>
+    <col min="15374" max="15374" width="6.75" style="1" customWidth="1"/>
+    <col min="15375" max="15616" width="9" style="1"/>
+    <col min="15617" max="15617" width="2.875" style="1" customWidth="1"/>
+    <col min="15618" max="15618" width="6.25" style="1" customWidth="1"/>
+    <col min="15619" max="15623" width="8.875" style="1" customWidth="1"/>
+    <col min="15624" max="15625" width="9" style="1"/>
+    <col min="15626" max="15626" width="9.5" style="1" customWidth="1"/>
+    <col min="15627" max="15627" width="6.625" style="1" customWidth="1"/>
+    <col min="15628" max="15628" width="9.625" style="1" customWidth="1"/>
+    <col min="15629" max="15629" width="12.625" style="1" customWidth="1"/>
+    <col min="15630" max="15630" width="6.75" style="1" customWidth="1"/>
+    <col min="15631" max="15872" width="9" style="1"/>
+    <col min="15873" max="15873" width="2.875" style="1" customWidth="1"/>
+    <col min="15874" max="15874" width="6.25" style="1" customWidth="1"/>
+    <col min="15875" max="15879" width="8.875" style="1" customWidth="1"/>
+    <col min="15880" max="15881" width="9" style="1"/>
+    <col min="15882" max="15882" width="9.5" style="1" customWidth="1"/>
+    <col min="15883" max="15883" width="6.625" style="1" customWidth="1"/>
+    <col min="15884" max="15884" width="9.625" style="1" customWidth="1"/>
+    <col min="15885" max="15885" width="12.625" style="1" customWidth="1"/>
+    <col min="15886" max="15886" width="6.75" style="1" customWidth="1"/>
+    <col min="15887" max="16128" width="9" style="1"/>
+    <col min="16129" max="16129" width="2.875" style="1" customWidth="1"/>
+    <col min="16130" max="16130" width="6.25" style="1" customWidth="1"/>
+    <col min="16131" max="16135" width="8.875" style="1" customWidth="1"/>
+    <col min="16136" max="16137" width="9" style="1"/>
+    <col min="16138" max="16138" width="9.5" style="1" customWidth="1"/>
+    <col min="16139" max="16139" width="6.625" style="1" customWidth="1"/>
+    <col min="16140" max="16140" width="9.625" style="1" customWidth="1"/>
+    <col min="16141" max="16141" width="12.625" style="1" customWidth="1"/>
+    <col min="16142" max="16142" width="6.75" style="1" customWidth="1"/>
+    <col min="16143" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+    </row>
+    <row r="3" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:18" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="76"/>
+      <c r="J7" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="76"/>
+      <c r="L7" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="78"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="36">
+        <v>1</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="41"/>
+      <c r="J8" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="41"/>
+      <c r="L8" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="70"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="36">
+        <v>2</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="41"/>
+      <c r="J9" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="41"/>
+      <c r="L9" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="70"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="55"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="58"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="61"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="3"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10"/>
+      <c r="B18" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="63"/>
+    </row>
+    <row r="20" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="66"/>
+    </row>
+    <row r="21" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="66"/>
+    </row>
+    <row r="22" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="66"/>
+    </row>
+    <row r="23" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
+    </row>
+    <row r="24" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
+    </row>
+    <row r="25" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="66"/>
+    </row>
+    <row r="26" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="66"/>
+    </row>
+    <row r="27" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="66"/>
+      <c r="P27" s="23"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="67"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="69"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B14:M16"/>
+    <mergeCell ref="B19:M28"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="- 出席_x000a_- 欠席_x000a_- 遅刻_x000a_" sqref="L8:M9">
+      <formula1>"出席, 欠席, 遅刻"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="- Present_x000a_- Absent_x000a_- Late_x000a_" sqref="WVT983024:WVU983028 L65520:M65524 JH65520:JI65524 TD65520:TE65524 ACZ65520:ADA65524 AMV65520:AMW65524 AWR65520:AWS65524 BGN65520:BGO65524 BQJ65520:BQK65524 CAF65520:CAG65524 CKB65520:CKC65524 CTX65520:CTY65524 DDT65520:DDU65524 DNP65520:DNQ65524 DXL65520:DXM65524 EHH65520:EHI65524 ERD65520:ERE65524 FAZ65520:FBA65524 FKV65520:FKW65524 FUR65520:FUS65524 GEN65520:GEO65524 GOJ65520:GOK65524 GYF65520:GYG65524 HIB65520:HIC65524 HRX65520:HRY65524 IBT65520:IBU65524 ILP65520:ILQ65524 IVL65520:IVM65524 JFH65520:JFI65524 JPD65520:JPE65524 JYZ65520:JZA65524 KIV65520:KIW65524 KSR65520:KSS65524 LCN65520:LCO65524 LMJ65520:LMK65524 LWF65520:LWG65524 MGB65520:MGC65524 MPX65520:MPY65524 MZT65520:MZU65524 NJP65520:NJQ65524 NTL65520:NTM65524 ODH65520:ODI65524 OND65520:ONE65524 OWZ65520:OXA65524 PGV65520:PGW65524 PQR65520:PQS65524 QAN65520:QAO65524 QKJ65520:QKK65524 QUF65520:QUG65524 REB65520:REC65524 RNX65520:RNY65524 RXT65520:RXU65524 SHP65520:SHQ65524 SRL65520:SRM65524 TBH65520:TBI65524 TLD65520:TLE65524 TUZ65520:TVA65524 UEV65520:UEW65524 UOR65520:UOS65524 UYN65520:UYO65524 VIJ65520:VIK65524 VSF65520:VSG65524 WCB65520:WCC65524 WLX65520:WLY65524 WVT65520:WVU65524 L131056:M131060 JH131056:JI131060 TD131056:TE131060 ACZ131056:ADA131060 AMV131056:AMW131060 AWR131056:AWS131060 BGN131056:BGO131060 BQJ131056:BQK131060 CAF131056:CAG131060 CKB131056:CKC131060 CTX131056:CTY131060 DDT131056:DDU131060 DNP131056:DNQ131060 DXL131056:DXM131060 EHH131056:EHI131060 ERD131056:ERE131060 FAZ131056:FBA131060 FKV131056:FKW131060 FUR131056:FUS131060 GEN131056:GEO131060 GOJ131056:GOK131060 GYF131056:GYG131060 HIB131056:HIC131060 HRX131056:HRY131060 IBT131056:IBU131060 ILP131056:ILQ131060 IVL131056:IVM131060 JFH131056:JFI131060 JPD131056:JPE131060 JYZ131056:JZA131060 KIV131056:KIW131060 KSR131056:KSS131060 LCN131056:LCO131060 LMJ131056:LMK131060 LWF131056:LWG131060 MGB131056:MGC131060 MPX131056:MPY131060 MZT131056:MZU131060 NJP131056:NJQ131060 NTL131056:NTM131060 ODH131056:ODI131060 OND131056:ONE131060 OWZ131056:OXA131060 PGV131056:PGW131060 PQR131056:PQS131060 QAN131056:QAO131060 QKJ131056:QKK131060 QUF131056:QUG131060 REB131056:REC131060 RNX131056:RNY131060 RXT131056:RXU131060 SHP131056:SHQ131060 SRL131056:SRM131060 TBH131056:TBI131060 TLD131056:TLE131060 TUZ131056:TVA131060 UEV131056:UEW131060 UOR131056:UOS131060 UYN131056:UYO131060 VIJ131056:VIK131060 VSF131056:VSG131060 WCB131056:WCC131060 WLX131056:WLY131060 WVT131056:WVU131060 L196592:M196596 JH196592:JI196596 TD196592:TE196596 ACZ196592:ADA196596 AMV196592:AMW196596 AWR196592:AWS196596 BGN196592:BGO196596 BQJ196592:BQK196596 CAF196592:CAG196596 CKB196592:CKC196596 CTX196592:CTY196596 DDT196592:DDU196596 DNP196592:DNQ196596 DXL196592:DXM196596 EHH196592:EHI196596 ERD196592:ERE196596 FAZ196592:FBA196596 FKV196592:FKW196596 FUR196592:FUS196596 GEN196592:GEO196596 GOJ196592:GOK196596 GYF196592:GYG196596 HIB196592:HIC196596 HRX196592:HRY196596 IBT196592:IBU196596 ILP196592:ILQ196596 IVL196592:IVM196596 JFH196592:JFI196596 JPD196592:JPE196596 JYZ196592:JZA196596 KIV196592:KIW196596 KSR196592:KSS196596 LCN196592:LCO196596 LMJ196592:LMK196596 LWF196592:LWG196596 MGB196592:MGC196596 MPX196592:MPY196596 MZT196592:MZU196596 NJP196592:NJQ196596 NTL196592:NTM196596 ODH196592:ODI196596 OND196592:ONE196596 OWZ196592:OXA196596 PGV196592:PGW196596 PQR196592:PQS196596 QAN196592:QAO196596 QKJ196592:QKK196596 QUF196592:QUG196596 REB196592:REC196596 RNX196592:RNY196596 RXT196592:RXU196596 SHP196592:SHQ196596 SRL196592:SRM196596 TBH196592:TBI196596 TLD196592:TLE196596 TUZ196592:TVA196596 UEV196592:UEW196596 UOR196592:UOS196596 UYN196592:UYO196596 VIJ196592:VIK196596 VSF196592:VSG196596 WCB196592:WCC196596 WLX196592:WLY196596 WVT196592:WVU196596 L262128:M262132 JH262128:JI262132 TD262128:TE262132 ACZ262128:ADA262132 AMV262128:AMW262132 AWR262128:AWS262132 BGN262128:BGO262132 BQJ262128:BQK262132 CAF262128:CAG262132 CKB262128:CKC262132 CTX262128:CTY262132 DDT262128:DDU262132 DNP262128:DNQ262132 DXL262128:DXM262132 EHH262128:EHI262132 ERD262128:ERE262132 FAZ262128:FBA262132 FKV262128:FKW262132 FUR262128:FUS262132 GEN262128:GEO262132 GOJ262128:GOK262132 GYF262128:GYG262132 HIB262128:HIC262132 HRX262128:HRY262132 IBT262128:IBU262132 ILP262128:ILQ262132 IVL262128:IVM262132 JFH262128:JFI262132 JPD262128:JPE262132 JYZ262128:JZA262132 KIV262128:KIW262132 KSR262128:KSS262132 LCN262128:LCO262132 LMJ262128:LMK262132 LWF262128:LWG262132 MGB262128:MGC262132 MPX262128:MPY262132 MZT262128:MZU262132 NJP262128:NJQ262132 NTL262128:NTM262132 ODH262128:ODI262132 OND262128:ONE262132 OWZ262128:OXA262132 PGV262128:PGW262132 PQR262128:PQS262132 QAN262128:QAO262132 QKJ262128:QKK262132 QUF262128:QUG262132 REB262128:REC262132 RNX262128:RNY262132 RXT262128:RXU262132 SHP262128:SHQ262132 SRL262128:SRM262132 TBH262128:TBI262132 TLD262128:TLE262132 TUZ262128:TVA262132 UEV262128:UEW262132 UOR262128:UOS262132 UYN262128:UYO262132 VIJ262128:VIK262132 VSF262128:VSG262132 WCB262128:WCC262132 WLX262128:WLY262132 WVT262128:WVU262132 L327664:M327668 JH327664:JI327668 TD327664:TE327668 ACZ327664:ADA327668 AMV327664:AMW327668 AWR327664:AWS327668 BGN327664:BGO327668 BQJ327664:BQK327668 CAF327664:CAG327668 CKB327664:CKC327668 CTX327664:CTY327668 DDT327664:DDU327668 DNP327664:DNQ327668 DXL327664:DXM327668 EHH327664:EHI327668 ERD327664:ERE327668 FAZ327664:FBA327668 FKV327664:FKW327668 FUR327664:FUS327668 GEN327664:GEO327668 GOJ327664:GOK327668 GYF327664:GYG327668 HIB327664:HIC327668 HRX327664:HRY327668 IBT327664:IBU327668 ILP327664:ILQ327668 IVL327664:IVM327668 JFH327664:JFI327668 JPD327664:JPE327668 JYZ327664:JZA327668 KIV327664:KIW327668 KSR327664:KSS327668 LCN327664:LCO327668 LMJ327664:LMK327668 LWF327664:LWG327668 MGB327664:MGC327668 MPX327664:MPY327668 MZT327664:MZU327668 NJP327664:NJQ327668 NTL327664:NTM327668 ODH327664:ODI327668 OND327664:ONE327668 OWZ327664:OXA327668 PGV327664:PGW327668 PQR327664:PQS327668 QAN327664:QAO327668 QKJ327664:QKK327668 QUF327664:QUG327668 REB327664:REC327668 RNX327664:RNY327668 RXT327664:RXU327668 SHP327664:SHQ327668 SRL327664:SRM327668 TBH327664:TBI327668 TLD327664:TLE327668 TUZ327664:TVA327668 UEV327664:UEW327668 UOR327664:UOS327668 UYN327664:UYO327668 VIJ327664:VIK327668 VSF327664:VSG327668 WCB327664:WCC327668 WLX327664:WLY327668 WVT327664:WVU327668 L393200:M393204 JH393200:JI393204 TD393200:TE393204 ACZ393200:ADA393204 AMV393200:AMW393204 AWR393200:AWS393204 BGN393200:BGO393204 BQJ393200:BQK393204 CAF393200:CAG393204 CKB393200:CKC393204 CTX393200:CTY393204 DDT393200:DDU393204 DNP393200:DNQ393204 DXL393200:DXM393204 EHH393200:EHI393204 ERD393200:ERE393204 FAZ393200:FBA393204 FKV393200:FKW393204 FUR393200:FUS393204 GEN393200:GEO393204 GOJ393200:GOK393204 GYF393200:GYG393204 HIB393200:HIC393204 HRX393200:HRY393204 IBT393200:IBU393204 ILP393200:ILQ393204 IVL393200:IVM393204 JFH393200:JFI393204 JPD393200:JPE393204 JYZ393200:JZA393204 KIV393200:KIW393204 KSR393200:KSS393204 LCN393200:LCO393204 LMJ393200:LMK393204 LWF393200:LWG393204 MGB393200:MGC393204 MPX393200:MPY393204 MZT393200:MZU393204 NJP393200:NJQ393204 NTL393200:NTM393204 ODH393200:ODI393204 OND393200:ONE393204 OWZ393200:OXA393204 PGV393200:PGW393204 PQR393200:PQS393204 QAN393200:QAO393204 QKJ393200:QKK393204 QUF393200:QUG393204 REB393200:REC393204 RNX393200:RNY393204 RXT393200:RXU393204 SHP393200:SHQ393204 SRL393200:SRM393204 TBH393200:TBI393204 TLD393200:TLE393204 TUZ393200:TVA393204 UEV393200:UEW393204 UOR393200:UOS393204 UYN393200:UYO393204 VIJ393200:VIK393204 VSF393200:VSG393204 WCB393200:WCC393204 WLX393200:WLY393204 WVT393200:WVU393204 L458736:M458740 JH458736:JI458740 TD458736:TE458740 ACZ458736:ADA458740 AMV458736:AMW458740 AWR458736:AWS458740 BGN458736:BGO458740 BQJ458736:BQK458740 CAF458736:CAG458740 CKB458736:CKC458740 CTX458736:CTY458740 DDT458736:DDU458740 DNP458736:DNQ458740 DXL458736:DXM458740 EHH458736:EHI458740 ERD458736:ERE458740 FAZ458736:FBA458740 FKV458736:FKW458740 FUR458736:FUS458740 GEN458736:GEO458740 GOJ458736:GOK458740 GYF458736:GYG458740 HIB458736:HIC458740 HRX458736:HRY458740 IBT458736:IBU458740 ILP458736:ILQ458740 IVL458736:IVM458740 JFH458736:JFI458740 JPD458736:JPE458740 JYZ458736:JZA458740 KIV458736:KIW458740 KSR458736:KSS458740 LCN458736:LCO458740 LMJ458736:LMK458740 LWF458736:LWG458740 MGB458736:MGC458740 MPX458736:MPY458740 MZT458736:MZU458740 NJP458736:NJQ458740 NTL458736:NTM458740 ODH458736:ODI458740 OND458736:ONE458740 OWZ458736:OXA458740 PGV458736:PGW458740 PQR458736:PQS458740 QAN458736:QAO458740 QKJ458736:QKK458740 QUF458736:QUG458740 REB458736:REC458740 RNX458736:RNY458740 RXT458736:RXU458740 SHP458736:SHQ458740 SRL458736:SRM458740 TBH458736:TBI458740 TLD458736:TLE458740 TUZ458736:TVA458740 UEV458736:UEW458740 UOR458736:UOS458740 UYN458736:UYO458740 VIJ458736:VIK458740 VSF458736:VSG458740 WCB458736:WCC458740 WLX458736:WLY458740 WVT458736:WVU458740 L524272:M524276 JH524272:JI524276 TD524272:TE524276 ACZ524272:ADA524276 AMV524272:AMW524276 AWR524272:AWS524276 BGN524272:BGO524276 BQJ524272:BQK524276 CAF524272:CAG524276 CKB524272:CKC524276 CTX524272:CTY524276 DDT524272:DDU524276 DNP524272:DNQ524276 DXL524272:DXM524276 EHH524272:EHI524276 ERD524272:ERE524276 FAZ524272:FBA524276 FKV524272:FKW524276 FUR524272:FUS524276 GEN524272:GEO524276 GOJ524272:GOK524276 GYF524272:GYG524276 HIB524272:HIC524276 HRX524272:HRY524276 IBT524272:IBU524276 ILP524272:ILQ524276 IVL524272:IVM524276 JFH524272:JFI524276 JPD524272:JPE524276 JYZ524272:JZA524276 KIV524272:KIW524276 KSR524272:KSS524276 LCN524272:LCO524276 LMJ524272:LMK524276 LWF524272:LWG524276 MGB524272:MGC524276 MPX524272:MPY524276 MZT524272:MZU524276 NJP524272:NJQ524276 NTL524272:NTM524276 ODH524272:ODI524276 OND524272:ONE524276 OWZ524272:OXA524276 PGV524272:PGW524276 PQR524272:PQS524276 QAN524272:QAO524276 QKJ524272:QKK524276 QUF524272:QUG524276 REB524272:REC524276 RNX524272:RNY524276 RXT524272:RXU524276 SHP524272:SHQ524276 SRL524272:SRM524276 TBH524272:TBI524276 TLD524272:TLE524276 TUZ524272:TVA524276 UEV524272:UEW524276 UOR524272:UOS524276 UYN524272:UYO524276 VIJ524272:VIK524276 VSF524272:VSG524276 WCB524272:WCC524276 WLX524272:WLY524276 WVT524272:WVU524276 L589808:M589812 JH589808:JI589812 TD589808:TE589812 ACZ589808:ADA589812 AMV589808:AMW589812 AWR589808:AWS589812 BGN589808:BGO589812 BQJ589808:BQK589812 CAF589808:CAG589812 CKB589808:CKC589812 CTX589808:CTY589812 DDT589808:DDU589812 DNP589808:DNQ589812 DXL589808:DXM589812 EHH589808:EHI589812 ERD589808:ERE589812 FAZ589808:FBA589812 FKV589808:FKW589812 FUR589808:FUS589812 GEN589808:GEO589812 GOJ589808:GOK589812 GYF589808:GYG589812 HIB589808:HIC589812 HRX589808:HRY589812 IBT589808:IBU589812 ILP589808:ILQ589812 IVL589808:IVM589812 JFH589808:JFI589812 JPD589808:JPE589812 JYZ589808:JZA589812 KIV589808:KIW589812 KSR589808:KSS589812 LCN589808:LCO589812 LMJ589808:LMK589812 LWF589808:LWG589812 MGB589808:MGC589812 MPX589808:MPY589812 MZT589808:MZU589812 NJP589808:NJQ589812 NTL589808:NTM589812 ODH589808:ODI589812 OND589808:ONE589812 OWZ589808:OXA589812 PGV589808:PGW589812 PQR589808:PQS589812 QAN589808:QAO589812 QKJ589808:QKK589812 QUF589808:QUG589812 REB589808:REC589812 RNX589808:RNY589812 RXT589808:RXU589812 SHP589808:SHQ589812 SRL589808:SRM589812 TBH589808:TBI589812 TLD589808:TLE589812 TUZ589808:TVA589812 UEV589808:UEW589812 UOR589808:UOS589812 UYN589808:UYO589812 VIJ589808:VIK589812 VSF589808:VSG589812 WCB589808:WCC589812 WLX589808:WLY589812 WVT589808:WVU589812 L655344:M655348 JH655344:JI655348 TD655344:TE655348 ACZ655344:ADA655348 AMV655344:AMW655348 AWR655344:AWS655348 BGN655344:BGO655348 BQJ655344:BQK655348 CAF655344:CAG655348 CKB655344:CKC655348 CTX655344:CTY655348 DDT655344:DDU655348 DNP655344:DNQ655348 DXL655344:DXM655348 EHH655344:EHI655348 ERD655344:ERE655348 FAZ655344:FBA655348 FKV655344:FKW655348 FUR655344:FUS655348 GEN655344:GEO655348 GOJ655344:GOK655348 GYF655344:GYG655348 HIB655344:HIC655348 HRX655344:HRY655348 IBT655344:IBU655348 ILP655344:ILQ655348 IVL655344:IVM655348 JFH655344:JFI655348 JPD655344:JPE655348 JYZ655344:JZA655348 KIV655344:KIW655348 KSR655344:KSS655348 LCN655344:LCO655348 LMJ655344:LMK655348 LWF655344:LWG655348 MGB655344:MGC655348 MPX655344:MPY655348 MZT655344:MZU655348 NJP655344:NJQ655348 NTL655344:NTM655348 ODH655344:ODI655348 OND655344:ONE655348 OWZ655344:OXA655348 PGV655344:PGW655348 PQR655344:PQS655348 QAN655344:QAO655348 QKJ655344:QKK655348 QUF655344:QUG655348 REB655344:REC655348 RNX655344:RNY655348 RXT655344:RXU655348 SHP655344:SHQ655348 SRL655344:SRM655348 TBH655344:TBI655348 TLD655344:TLE655348 TUZ655344:TVA655348 UEV655344:UEW655348 UOR655344:UOS655348 UYN655344:UYO655348 VIJ655344:VIK655348 VSF655344:VSG655348 WCB655344:WCC655348 WLX655344:WLY655348 WVT655344:WVU655348 L720880:M720884 JH720880:JI720884 TD720880:TE720884 ACZ720880:ADA720884 AMV720880:AMW720884 AWR720880:AWS720884 BGN720880:BGO720884 BQJ720880:BQK720884 CAF720880:CAG720884 CKB720880:CKC720884 CTX720880:CTY720884 DDT720880:DDU720884 DNP720880:DNQ720884 DXL720880:DXM720884 EHH720880:EHI720884 ERD720880:ERE720884 FAZ720880:FBA720884 FKV720880:FKW720884 FUR720880:FUS720884 GEN720880:GEO720884 GOJ720880:GOK720884 GYF720880:GYG720884 HIB720880:HIC720884 HRX720880:HRY720884 IBT720880:IBU720884 ILP720880:ILQ720884 IVL720880:IVM720884 JFH720880:JFI720884 JPD720880:JPE720884 JYZ720880:JZA720884 KIV720880:KIW720884 KSR720880:KSS720884 LCN720880:LCO720884 LMJ720880:LMK720884 LWF720880:LWG720884 MGB720880:MGC720884 MPX720880:MPY720884 MZT720880:MZU720884 NJP720880:NJQ720884 NTL720880:NTM720884 ODH720880:ODI720884 OND720880:ONE720884 OWZ720880:OXA720884 PGV720880:PGW720884 PQR720880:PQS720884 QAN720880:QAO720884 QKJ720880:QKK720884 QUF720880:QUG720884 REB720880:REC720884 RNX720880:RNY720884 RXT720880:RXU720884 SHP720880:SHQ720884 SRL720880:SRM720884 TBH720880:TBI720884 TLD720880:TLE720884 TUZ720880:TVA720884 UEV720880:UEW720884 UOR720880:UOS720884 UYN720880:UYO720884 VIJ720880:VIK720884 VSF720880:VSG720884 WCB720880:WCC720884 WLX720880:WLY720884 WVT720880:WVU720884 L786416:M786420 JH786416:JI786420 TD786416:TE786420 ACZ786416:ADA786420 AMV786416:AMW786420 AWR786416:AWS786420 BGN786416:BGO786420 BQJ786416:BQK786420 CAF786416:CAG786420 CKB786416:CKC786420 CTX786416:CTY786420 DDT786416:DDU786420 DNP786416:DNQ786420 DXL786416:DXM786420 EHH786416:EHI786420 ERD786416:ERE786420 FAZ786416:FBA786420 FKV786416:FKW786420 FUR786416:FUS786420 GEN786416:GEO786420 GOJ786416:GOK786420 GYF786416:GYG786420 HIB786416:HIC786420 HRX786416:HRY786420 IBT786416:IBU786420 ILP786416:ILQ786420 IVL786416:IVM786420 JFH786416:JFI786420 JPD786416:JPE786420 JYZ786416:JZA786420 KIV786416:KIW786420 KSR786416:KSS786420 LCN786416:LCO786420 LMJ786416:LMK786420 LWF786416:LWG786420 MGB786416:MGC786420 MPX786416:MPY786420 MZT786416:MZU786420 NJP786416:NJQ786420 NTL786416:NTM786420 ODH786416:ODI786420 OND786416:ONE786420 OWZ786416:OXA786420 PGV786416:PGW786420 PQR786416:PQS786420 QAN786416:QAO786420 QKJ786416:QKK786420 QUF786416:QUG786420 REB786416:REC786420 RNX786416:RNY786420 RXT786416:RXU786420 SHP786416:SHQ786420 SRL786416:SRM786420 TBH786416:TBI786420 TLD786416:TLE786420 TUZ786416:TVA786420 UEV786416:UEW786420 UOR786416:UOS786420 UYN786416:UYO786420 VIJ786416:VIK786420 VSF786416:VSG786420 WCB786416:WCC786420 WLX786416:WLY786420 WVT786416:WVU786420 L851952:M851956 JH851952:JI851956 TD851952:TE851956 ACZ851952:ADA851956 AMV851952:AMW851956 AWR851952:AWS851956 BGN851952:BGO851956 BQJ851952:BQK851956 CAF851952:CAG851956 CKB851952:CKC851956 CTX851952:CTY851956 DDT851952:DDU851956 DNP851952:DNQ851956 DXL851952:DXM851956 EHH851952:EHI851956 ERD851952:ERE851956 FAZ851952:FBA851956 FKV851952:FKW851956 FUR851952:FUS851956 GEN851952:GEO851956 GOJ851952:GOK851956 GYF851952:GYG851956 HIB851952:HIC851956 HRX851952:HRY851956 IBT851952:IBU851956 ILP851952:ILQ851956 IVL851952:IVM851956 JFH851952:JFI851956 JPD851952:JPE851956 JYZ851952:JZA851956 KIV851952:KIW851956 KSR851952:KSS851956 LCN851952:LCO851956 LMJ851952:LMK851956 LWF851952:LWG851956 MGB851952:MGC851956 MPX851952:MPY851956 MZT851952:MZU851956 NJP851952:NJQ851956 NTL851952:NTM851956 ODH851952:ODI851956 OND851952:ONE851956 OWZ851952:OXA851956 PGV851952:PGW851956 PQR851952:PQS851956 QAN851952:QAO851956 QKJ851952:QKK851956 QUF851952:QUG851956 REB851952:REC851956 RNX851952:RNY851956 RXT851952:RXU851956 SHP851952:SHQ851956 SRL851952:SRM851956 TBH851952:TBI851956 TLD851952:TLE851956 TUZ851952:TVA851956 UEV851952:UEW851956 UOR851952:UOS851956 UYN851952:UYO851956 VIJ851952:VIK851956 VSF851952:VSG851956 WCB851952:WCC851956 WLX851952:WLY851956 WVT851952:WVU851956 L917488:M917492 JH917488:JI917492 TD917488:TE917492 ACZ917488:ADA917492 AMV917488:AMW917492 AWR917488:AWS917492 BGN917488:BGO917492 BQJ917488:BQK917492 CAF917488:CAG917492 CKB917488:CKC917492 CTX917488:CTY917492 DDT917488:DDU917492 DNP917488:DNQ917492 DXL917488:DXM917492 EHH917488:EHI917492 ERD917488:ERE917492 FAZ917488:FBA917492 FKV917488:FKW917492 FUR917488:FUS917492 GEN917488:GEO917492 GOJ917488:GOK917492 GYF917488:GYG917492 HIB917488:HIC917492 HRX917488:HRY917492 IBT917488:IBU917492 ILP917488:ILQ917492 IVL917488:IVM917492 JFH917488:JFI917492 JPD917488:JPE917492 JYZ917488:JZA917492 KIV917488:KIW917492 KSR917488:KSS917492 LCN917488:LCO917492 LMJ917488:LMK917492 LWF917488:LWG917492 MGB917488:MGC917492 MPX917488:MPY917492 MZT917488:MZU917492 NJP917488:NJQ917492 NTL917488:NTM917492 ODH917488:ODI917492 OND917488:ONE917492 OWZ917488:OXA917492 PGV917488:PGW917492 PQR917488:PQS917492 QAN917488:QAO917492 QKJ917488:QKK917492 QUF917488:QUG917492 REB917488:REC917492 RNX917488:RNY917492 RXT917488:RXU917492 SHP917488:SHQ917492 SRL917488:SRM917492 TBH917488:TBI917492 TLD917488:TLE917492 TUZ917488:TVA917492 UEV917488:UEW917492 UOR917488:UOS917492 UYN917488:UYO917492 VIJ917488:VIK917492 VSF917488:VSG917492 WCB917488:WCC917492 WLX917488:WLY917492 WVT917488:WVU917492 L983024:M983028 JH983024:JI983028 TD983024:TE983028 ACZ983024:ADA983028 AMV983024:AMW983028 AWR983024:AWS983028 BGN983024:BGO983028 BQJ983024:BQK983028 CAF983024:CAG983028 CKB983024:CKC983028 CTX983024:CTY983028 DDT983024:DDU983028 DNP983024:DNQ983028 DXL983024:DXM983028 EHH983024:EHI983028 ERD983024:ERE983028 FAZ983024:FBA983028 FKV983024:FKW983028 FUR983024:FUS983028 GEN983024:GEO983028 GOJ983024:GOK983028 GYF983024:GYG983028 HIB983024:HIC983028 HRX983024:HRY983028 IBT983024:IBU983028 ILP983024:ILQ983028 IVL983024:IVM983028 JFH983024:JFI983028 JPD983024:JPE983028 JYZ983024:JZA983028 KIV983024:KIW983028 KSR983024:KSS983028 LCN983024:LCO983028 LMJ983024:LMK983028 LWF983024:LWG983028 MGB983024:MGC983028 MPX983024:MPY983028 MZT983024:MZU983028 NJP983024:NJQ983028 NTL983024:NTM983028 ODH983024:ODI983028 OND983024:ONE983028 OWZ983024:OXA983028 PGV983024:PGW983028 PQR983024:PQS983028 QAN983024:QAO983028 QKJ983024:QKK983028 QUF983024:QUG983028 REB983024:REC983028 RNX983024:RNY983028 RXT983024:RXU983028 SHP983024:SHQ983028 SRL983024:SRM983028 TBH983024:TBI983028 TLD983024:TLE983028 TUZ983024:TVA983028 UEV983024:UEW983028 UOR983024:UOS983028 UYN983024:UYO983028 VIJ983024:VIK983028 VSF983024:VSG983028 WCB983024:WCC983028 WLX983024:WLY983028 JH8:JI9 TD8:TE9 ACZ8:ADA9 AMV8:AMW9 AWR8:AWS9 BGN8:BGO9 BQJ8:BQK9 CAF8:CAG9 CKB8:CKC9 CTX8:CTY9 DDT8:DDU9 DNP8:DNQ9 DXL8:DXM9 EHH8:EHI9 ERD8:ERE9 FAZ8:FBA9 FKV8:FKW9 FUR8:FUS9 GEN8:GEO9 GOJ8:GOK9 GYF8:GYG9 HIB8:HIC9 HRX8:HRY9 IBT8:IBU9 ILP8:ILQ9 IVL8:IVM9 JFH8:JFI9 JPD8:JPE9 JYZ8:JZA9 KIV8:KIW9 KSR8:KSS9 LCN8:LCO9 LMJ8:LMK9 LWF8:LWG9 MGB8:MGC9 MPX8:MPY9 MZT8:MZU9 NJP8:NJQ9 NTL8:NTM9 ODH8:ODI9 OND8:ONE9 OWZ8:OXA9 PGV8:PGW9 PQR8:PQS9 QAN8:QAO9 QKJ8:QKK9 QUF8:QUG9 REB8:REC9 RNX8:RNY9 RXT8:RXU9 SHP8:SHQ9 SRL8:SRM9 TBH8:TBI9 TLD8:TLE9 TUZ8:TVA9 UEV8:UEW9 UOR8:UOS9 UYN8:UYO9 VIJ8:VIK9 VSF8:VSG9 WCB8:WCC9 WLX8:WLY9 WVT8:WVU9">
+      <formula1>"Present, Absent, Late"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/001_GPSCamera_Document/006＿GPSカメラアプリ＿議事録.xlsx
+++ b/001_GPSCamera_Document/006＿GPSカメラアプリ＿議事録.xlsx
@@ -938,11 +938,31 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>　　・説明方法が分かりやすくにする。
+      <t xml:space="preserve">　　・説明方法が分かりやすくにする。
 ◆画面仕様書
 　　・位置をBackgroundとForegroundの処理機能を追加したほうがいい。
 　　・アプリを起動するときに、アカウント情報を記入したほうがいい。
-　　・画面のサイズによって、どのように表示するかどうかを説明する必要があります。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　　・画面のサイズによって、どのように表示するかどうかを説明する必要があります。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
 　　・位置情報を記録する機能を作成する。
 ◆内部設計書
 　　・アプリを起動する際に、何を実行するかを説明する。
@@ -1132,7 +1152,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1209,6 +1229,14 @@
       <sz val="24"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1462,7 +1490,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1471,7 +1499,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1500,6 +1527,67 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1564,66 +1652,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2584,54 +2612,54 @@
   <sheetData>
     <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
       <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
       <c r="H4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="47"/>
+      <c r="J4" s="46"/>
       <c r="K4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="48">
+      <c r="L4" s="47">
         <v>42250</v>
       </c>
-      <c r="M4" s="48"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="5"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -2640,23 +2668,23 @@
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="47"/>
+      <c r="J5" s="46"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -2718,17 +2746,17 @@
       <c r="F8" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="50" t="s">
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="52"/>
+      <c r="M8" s="51"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="6"/>
@@ -2747,7 +2775,7 @@
       <c r="F9" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="37" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="38"/>
@@ -2768,7 +2796,7 @@
       <c r="D10" s="31"/>
       <c r="E10" s="32"/>
       <c r="F10" s="26"/>
-      <c r="G10" s="37"/>
+      <c r="G10" s="52"/>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
@@ -2787,7 +2815,7 @@
       <c r="D11" s="31"/>
       <c r="E11" s="32"/>
       <c r="F11" s="26"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="52"/>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
@@ -2806,7 +2834,7 @@
       <c r="D12" s="31"/>
       <c r="E12" s="32"/>
       <c r="F12" s="26"/>
-      <c r="G12" s="37"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
@@ -2825,7 +2853,7 @@
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
       <c r="F13" s="26"/>
-      <c r="G13" s="37"/>
+      <c r="G13" s="52"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
       <c r="J13" s="38"/>
@@ -2842,6 +2870,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:M12"/>
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B2:M2"/>
@@ -2855,14 +2891,6 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -3534,39 +3562,39 @@
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
       <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="15" t="s">
         <v>4</v>
       </c>
@@ -3593,11 +3621,11 @@
       <c r="B4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
       <c r="G4" s="15" t="s">
         <v>5</v>
       </c>
@@ -3657,25 +3685,25 @@
       <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="50" t="s">
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="50" t="s">
+      <c r="I7" s="66"/>
+      <c r="J7" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="76"/>
-      <c r="L7" s="77" t="s">
+      <c r="K7" s="66"/>
+      <c r="L7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="78"/>
+      <c r="M7" s="67"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="6"/>
@@ -3684,14 +3712,14 @@
       <c r="B8" s="9">
         <v>1</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="74" t="s">
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="94" t="s">
         <v>24</v>
       </c>
       <c r="I8" s="41"/>
@@ -3699,10 +3727,10 @@
         <v>25</v>
       </c>
       <c r="K8" s="41"/>
-      <c r="L8" s="70" t="s">
+      <c r="L8" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="70"/>
+      <c r="M8" s="90"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="6"/>
@@ -3711,25 +3739,25 @@
       <c r="B9" s="9">
         <v>2</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="74" t="s">
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="94" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="41"/>
-      <c r="J9" s="74" t="s">
+      <c r="J9" s="94" t="s">
         <v>28</v>
       </c>
       <c r="K9" s="41"/>
-      <c r="L9" s="70" t="s">
+      <c r="L9" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="70"/>
+      <c r="M9" s="90"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="6"/>
@@ -3755,50 +3783,50 @@
     </row>
     <row r="14" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="55"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="75"/>
     </row>
     <row r="15" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="58"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="78"/>
     </row>
     <row r="16" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="61"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
     </row>
     <row r="17" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
@@ -3813,147 +3841,147 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="63"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="83"/>
     </row>
     <row r="20" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="66"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="86"/>
     </row>
     <row r="21" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="66"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="86"/>
     </row>
     <row r="22" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="66"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="86"/>
     </row>
     <row r="23" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="86"/>
     </row>
     <row r="24" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="86"/>
     </row>
     <row r="25" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="66"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="86"/>
     </row>
     <row r="26" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="66"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="86"/>
     </row>
     <row r="27" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="66"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="86"/>
       <c r="P27" s="23"/>
     </row>
     <row r="28" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="67"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="69"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="89"/>
     </row>
     <row r="29" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3967,20 +3995,20 @@
       <c r="B31" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="77" t="s">
+      <c r="C31" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="50" t="s">
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="52"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="51"/>
       <c r="M31" s="17" t="s">
         <v>16</v>
       </c>
@@ -3989,20 +4017,20 @@
       <c r="B32" s="13">
         <v>1</v>
       </c>
-      <c r="C32" s="84" t="s">
+      <c r="C32" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="85"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="88" t="s">
+      <c r="D32" s="57"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="90"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="63"/>
       <c r="M32" s="24">
         <v>42250</v>
       </c>
@@ -4011,20 +4039,20 @@
       <c r="B33" s="13">
         <v>2</v>
       </c>
-      <c r="C33" s="84" t="s">
+      <c r="C33" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="85"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="91" t="s">
+      <c r="D33" s="57"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="90"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="63"/>
       <c r="M33" s="24">
         <v>42254</v>
       </c>
@@ -4039,53 +4067,53 @@
       <c r="B36" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="50" t="s">
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="52"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="51"/>
       <c r="P36" s="18"/>
     </row>
     <row r="37" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13">
         <v>1</v>
       </c>
-      <c r="C37" s="92"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="93"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
       <c r="H37" s="40"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="94"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
       <c r="M37" s="41"/>
     </row>
     <row r="38" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13">
         <v>2</v>
       </c>
-      <c r="C38" s="92"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
       <c r="H38" s="40"/>
-      <c r="I38" s="94"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="94"/>
-      <c r="L38" s="94"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
       <c r="M38" s="41"/>
     </row>
     <row r="39" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4116,26 +4144,6 @@
     <row r="64" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F31:L31"/>
-    <mergeCell ref="F32:L32"/>
-    <mergeCell ref="F33:L33"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
     <mergeCell ref="B14:M16"/>
     <mergeCell ref="B19:M28"/>
     <mergeCell ref="L9:M9"/>
@@ -4146,6 +4154,26 @@
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F31:L31"/>
+    <mergeCell ref="F32:L32"/>
+    <mergeCell ref="F33:L33"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H38:M38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -4166,7 +4194,7 @@
   <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -4817,39 +4845,39 @@
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
       <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="34" t="s">
         <v>4</v>
       </c>
@@ -4876,11 +4904,11 @@
       <c r="B4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
       <c r="G4" s="34" t="s">
         <v>5</v>
       </c>
@@ -4940,25 +4968,25 @@
       <c r="B7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="50" t="s">
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="50" t="s">
+      <c r="I7" s="66"/>
+      <c r="J7" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="76"/>
-      <c r="L7" s="77" t="s">
+      <c r="K7" s="66"/>
+      <c r="L7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="78"/>
+      <c r="M7" s="67"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="6"/>
@@ -4967,14 +4995,14 @@
       <c r="B8" s="36">
         <v>1</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="74" t="s">
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="94" t="s">
         <v>24</v>
       </c>
       <c r="I8" s="41"/>
@@ -4982,10 +5010,10 @@
         <v>25</v>
       </c>
       <c r="K8" s="41"/>
-      <c r="L8" s="70" t="s">
+      <c r="L8" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="70"/>
+      <c r="M8" s="90"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="6"/>
@@ -4994,25 +5022,25 @@
       <c r="B9" s="36">
         <v>2</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="74" t="s">
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="94" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="41"/>
-      <c r="J9" s="74" t="s">
+      <c r="J9" s="94" t="s">
         <v>28</v>
       </c>
       <c r="K9" s="41"/>
-      <c r="L9" s="70" t="s">
+      <c r="L9" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="70"/>
+      <c r="M9" s="90"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="6"/>
@@ -5038,50 +5066,50 @@
     </row>
     <row r="14" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="55"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="75"/>
     </row>
     <row r="15" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="58"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="78"/>
     </row>
     <row r="16" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="61"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
     </row>
     <row r="17" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
@@ -5096,147 +5124,147 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="63"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="83"/>
     </row>
     <row r="20" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="66"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="86"/>
     </row>
     <row r="21" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="66"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="86"/>
     </row>
     <row r="22" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="66"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="86"/>
     </row>
     <row r="23" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="86"/>
     </row>
     <row r="24" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="86"/>
     </row>
     <row r="25" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="66"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="86"/>
     </row>
     <row r="26" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="66"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="86"/>
     </row>
     <row r="27" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="66"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="86"/>
       <c r="P27" s="23"/>
     </row>
     <row r="28" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="67"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="69"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="89"/>
     </row>
     <row r="29" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5267,6 +5295,14 @@
     <row r="55" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="B14:M16"/>
     <mergeCell ref="B19:M28"/>
     <mergeCell ref="C8:G8"/>
@@ -5277,14 +5313,6 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
